--- a/Мат_Стат/Lab1/MS_1_laba_1.xlsx
+++ b/Мат_Стат/Lab1/MS_1_laba_1.xlsx
@@ -1,43 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4388E1C-9491-445A-B47D-D02C0D3D14DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3300" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3300" windowWidth="21600" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$G$6:$G$13</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$G$6:$G$13</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Лист1!$G$6:$G$13</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Лист1!$G$6:$G$13</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Лист1!$B$2:$AY$2</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Лист1!$F$10</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Лист1!$F$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Лист1!$F$12</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Лист1!$F$6:$F$13</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Лист1!$F$7</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Лист1!$F$8</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Лист1!$F$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Лист1!$B$2:$AY$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Лист1!$F$10</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Лист1!$F$11</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Лист1!$F$12</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Лист1!$F$6:$F$13</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Лист1!$F$7</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Лист1!$F$8</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Лист1!$F$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Лист1!$B$2:$AY$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Лист1!$F$6:$F$13</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>#Наблюдения</t>
   </si>
@@ -76,13 +57,163 @@
   </si>
   <si>
     <t>(3,93, 5,38]</t>
+  </si>
+  <si>
+    <t>-5.65</t>
+  </si>
+  <si>
+    <t>2.492</t>
+  </si>
+  <si>
+    <t>-1.634</t>
+  </si>
+  <si>
+    <t>4.298</t>
+  </si>
+  <si>
+    <t>-2.39</t>
+  </si>
+  <si>
+    <t>3.629</t>
+  </si>
+  <si>
+    <t>2.128</t>
+  </si>
+  <si>
+    <t>3.072</t>
+  </si>
+  <si>
+    <t>-0.626</t>
+  </si>
+  <si>
+    <t>3.484</t>
+  </si>
+  <si>
+    <t>-0.011</t>
+  </si>
+  <si>
+    <t>3.968</t>
+  </si>
+  <si>
+    <t>-1.269</t>
+  </si>
+  <si>
+    <t>-1.432</t>
+  </si>
+  <si>
+    <t>-3.21</t>
+  </si>
+  <si>
+    <t>-4.115</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>2.146</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>-9.371</t>
+  </si>
+  <si>
+    <t>-4.943</t>
+  </si>
+  <si>
+    <t>-0.417</t>
+  </si>
+  <si>
+    <t>2.530</t>
+  </si>
+  <si>
+    <t>-4.854</t>
+  </si>
+  <si>
+    <t>-1.304</t>
+  </si>
+  <si>
+    <t>-0.948</t>
+  </si>
+  <si>
+    <t>-2.528</t>
+  </si>
+  <si>
+    <t>-5.092</t>
+  </si>
+  <si>
+    <t>1.429</t>
+  </si>
+  <si>
+    <t>2.047</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>-4.127</t>
+  </si>
+  <si>
+    <t>-0.101</t>
+  </si>
+  <si>
+    <t>1.016</t>
+  </si>
+  <si>
+    <t>4.364</t>
+  </si>
+  <si>
+    <t>0.802</t>
+  </si>
+  <si>
+    <t>-1.595</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>2.488</t>
+  </si>
+  <si>
+    <t>1.578</t>
+  </si>
+  <si>
+    <t>-4.117</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>-1.65</t>
+  </si>
+  <si>
+    <t>-0.89</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>-3.219</t>
+  </si>
+  <si>
+    <t>-0.576</t>
+  </si>
+  <si>
+    <t>-0.91</t>
+  </si>
+  <si>
+    <t>1.773</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +235,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -113,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,19 +274,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -181,6 +349,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -269,6 +438,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -485,6 +655,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -492,7 +663,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -532,10 +702,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.6</cx:f>
+        <cx:f dir="row">_xlchart.v1.1</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1706,10 +1876,6 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="4086224"/>
-              <a:ext cx="5133976" cy="2552701"/>
-            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -1853,23 +2019,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1905,23 +2054,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -2097,11 +2229,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,7 +2242,7 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2265,792 +2397,780 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>0.122</v>
-      </c>
-      <c r="C2" s="3">
-        <v>-0.35899999999999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>-0.90300000000000002</v>
-      </c>
-      <c r="F2" s="3">
-        <v>-2.371</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1.087</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0.75900000000000001</v>
-      </c>
-      <c r="I2" s="3">
-        <v>2.113</v>
-      </c>
-      <c r="J2" s="3">
-        <v>5.3840000000000003</v>
-      </c>
-      <c r="K2" s="3">
-        <v>2.617</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2.97</v>
-      </c>
-      <c r="M2" s="3">
-        <v>2.7240000000000002</v>
-      </c>
-      <c r="N2" s="3">
-        <v>2.831</v>
-      </c>
-      <c r="O2" s="3">
-        <v>2.3460000000000001</v>
-      </c>
-      <c r="P2" s="3">
-        <v>-1.089</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>1.1379999999999999</v>
-      </c>
-      <c r="R2" s="3">
-        <v>-0.51100000000000001</v>
-      </c>
-      <c r="S2" s="3">
-        <v>2.3929999999999998</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0.63600000000000001</v>
-      </c>
-      <c r="U2" s="3">
-        <v>-0.28899999999999998</v>
-      </c>
-      <c r="V2" s="3">
-        <v>-0.44600000000000001</v>
-      </c>
-      <c r="W2" s="3">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="X2" s="3">
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0.51</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>1.179</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>3.524</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>-0.41099999999999998</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>1.004</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>3.2149999999999999</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>2.7850000000000001</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>-4.8019999999999996</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>-3.3140000000000001</v>
-      </c>
-      <c r="AH2" s="3">
-        <v>1.4119999999999999</v>
-      </c>
-      <c r="AI2" s="3">
-        <v>-0.23200000000000001</v>
-      </c>
-      <c r="AJ2" s="3">
-        <v>-1.395</v>
-      </c>
-      <c r="AK2" s="3">
-        <v>1.198</v>
-      </c>
-      <c r="AL2" s="3">
-        <v>2.5419999999999998</v>
-      </c>
-      <c r="AM2" s="3">
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="AN2" s="3">
-        <v>1.0229999999999999</v>
-      </c>
-      <c r="AO2" s="3">
-        <v>-0.52900000000000003</v>
-      </c>
-      <c r="AP2" s="3">
-        <v>0.182</v>
-      </c>
-      <c r="AQ2" s="3">
-        <v>-0.34799999999999998</v>
-      </c>
-      <c r="AR2" s="3">
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="AS2" s="3">
-        <v>3.036</v>
-      </c>
-      <c r="AT2" s="3">
-        <v>1.361</v>
-      </c>
-      <c r="AU2" s="3">
-        <v>2.0270000000000001</v>
-      </c>
-      <c r="AV2" s="3">
-        <v>2.48</v>
-      </c>
-      <c r="AW2" s="3">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="AX2" s="3">
-        <v>1.5580000000000001</v>
-      </c>
-      <c r="AY2" s="3">
-        <v>1.3240000000000001</v>
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
     </row>
     <row r="4" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
     </row>
     <row r="5" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3" t="e">
         <f>AVERAGE(B2:AY2)</f>
-        <v>0.91863999999999979</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3">
         <v>5.3840000000000003</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="3">
         <f>+SUM(L5,L6)</f>
         <v>10.184000000000001</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="3">
         <f>M5/7</f>
         <v>1.4548571428571431</v>
       </c>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
     </row>
     <row r="6" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3" t="e">
         <f>VAR(B2:AY2)</f>
-        <v>3.2688991738775504</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
         <v>-4.8</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>1</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4">
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
         <v>-4.8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
         <v>4.8</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
     </row>
     <row r="7" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3" t="e">
         <f>MEDIAN(B2:AY2)</f>
-        <v>1.0549999999999999</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+        <v>#NUM!</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
         <v>-3.3456999999999999</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4">
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
         <v>-3.3451428571428599</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>0</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
     </row>
     <row r="8" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="e">
+      <c r="B8" s="3" t="e">
         <f>MODE(B2:AY2)</f>
         <v>#N/A</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="4">
         <v>-1.8914</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="4">
         <v>2</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4">
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
         <v>-1.8902857142857137</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>2</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
     </row>
     <row r="9" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
         <v>-0.43709999999999999</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="4">
         <v>6</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4">
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
         <v>-0.43542857142857061</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>6</v>
       </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
     </row>
     <row r="10" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
         <v>1.0171399999999999</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>15</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4">
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
         <v>1.0194285714285725</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="3">
         <v>15</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
     </row>
     <row r="11" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4">
         <v>2.4714299999999998</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>15</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4">
+      <c r="H11" s="3"/>
+      <c r="I11" s="3">
         <v>2.4742857142857155</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>15</v>
       </c>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
     </row>
-    <row r="12" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+    <row r="12" spans="1:51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4">
         <v>3.92571</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3">
         <v>3.9291428571428586</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>11</v>
       </c>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
     </row>
     <row r="13" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4">
         <v>5.38</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>0</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
     </row>
     <row r="14" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
+    <row r="15" spans="1:51" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:51" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
     </row>
     <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
     </row>
     <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
     </row>
     <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
     </row>
     <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
     </row>
     <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
     </row>
     <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
     </row>
     <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
     </row>
     <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
